--- a/biology/Zoologie/Gallicolombe_érythroptère/Gallicolombe_érythroptère.xlsx
+++ b/biology/Zoologie/Gallicolombe_érythroptère/Gallicolombe_érythroptère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gallicolombe_%C3%A9rythropt%C3%A8re</t>
+          <t>Gallicolombe_érythroptère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopecoenas erythropterus
 La Gallicolombe érythroptère (Pampusana erythroptera) est une espèce d'oiseaux appartenant à la famille des colombidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gallicolombe_%C3%A9rythropt%C3%A8re</t>
+          <t>Gallicolombe_érythroptère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 25 cm de longueur pour une masse de 150 g.
 Le mâle ressemble beaucoup aux Gallicolombes de Jobi et de Kubary. Il a le front, les joues, la gorge et la poitrine blancs. La calotte, la nuque et le trait derrière chaque œil sont gris. Certains mâles peuvent avoir la tête entièrement blanche. Les parties supérieures sont gris olive foncé et pourpres. Des reflets rouge noisette marquent l'arrière du cou et les ailes. Le ventre est noirâtre. Les iris sont bruns, le bec noir et les pattes pourpre foncé.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gallicolombe_%C3%A9rythropt%C3%A8re</t>
+          <t>Gallicolombe_érythroptère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A. e. erythropterus (Gmelin, JF, 1789)
 † A. e. albicollis (Salvadori, 1892)</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gallicolombe_%C3%A9rythropt%C3%A8re</t>
+          <t>Gallicolombe_érythroptère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est endémique à l'archipel des Tuamotu en Polynésie française.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gallicolombe_%C3%A9rythropt%C3%A8re</t>
+          <t>Gallicolombe_érythroptère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle habite les forêts et broussailles sèches subtropicales et tropicales, les plantations et les jardins.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gallicolombe_%C3%A9rythropt%C3%A8re</t>
+          <t>Gallicolombe_érythroptère</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme des graines, des bourgeons et des feuilles.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gallicolombe_%C3%A9rythropt%C3%A8re</t>
+          <t>Gallicolombe_érythroptère</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est représentée par environ 115 individus, répartis sur 4 îles de l'archipel des Tuamotu en Polynésie française.
 </t>
